--- a/jointBootFalseNegative.xlsx
+++ b/jointBootFalseNegative.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\WormCFUHeterogeneity2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196A015-E40B-452A-AF3A-AA865B6AC8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="8190" yWindow="495" windowWidth="16725" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jointBootData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,11 +378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N65" si="1">SUM(2*D3*10^M3, 2*E3*10^M3, 2*F3*10^M3, 2*G3*10^M3, 2*H3*10^M3, 2*I3*10^M3, 2*J3*10^M3, 2*K3*10^M3)</f>
+        <f>SUM(2*D3*10^M3, 2*E3*10^M3, 2*F3*10^M3, 2*G3*10^M3, 2*H3*10^M3, 2*I3*10^M3, 2*J3*10^M3, 2*K3*10^M3)</f>
         <v>10260</v>
       </c>
     </row>
@@ -556,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D4*10^M4, 2*E4*10^M4, 2*F4*10^M4, 2*G4*10^M4, 2*H4*10^M4, 2*I4*10^M4, 2*J4*10^M4, 2*K4*10^M4)</f>
         <v>2540</v>
       </c>
     </row>
@@ -602,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D5*10^M5, 2*E5*10^M5, 2*F5*10^M5, 2*G5*10^M5, 2*H5*10^M5, 2*I5*10^M5, 2*J5*10^M5, 2*K5*10^M5)</f>
         <v>18000</v>
       </c>
     </row>
@@ -648,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D6*10^M6, 2*E6*10^M6, 2*F6*10^M6, 2*G6*10^M6, 2*H6*10^M6, 2*I6*10^M6, 2*J6*10^M6, 2*K6*10^M6)</f>
         <v>12840</v>
       </c>
     </row>
@@ -694,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D7*10^M7, 2*E7*10^M7, 2*F7*10^M7, 2*G7*10^M7, 2*H7*10^M7, 2*I7*10^M7, 2*J7*10^M7, 2*K7*10^M7)</f>
         <v>2620</v>
       </c>
     </row>
@@ -740,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D8*10^M8, 2*E8*10^M8, 2*F8*10^M8, 2*G8*10^M8, 2*H8*10^M8, 2*I8*10^M8, 2*J8*10^M8, 2*K8*10^M8)</f>
         <v>2400</v>
       </c>
     </row>
@@ -786,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D9*10^M9, 2*E9*10^M9, 2*F9*10^M9, 2*G9*10^M9, 2*H9*10^M9, 2*I9*10^M9, 2*J9*10^M9, 2*K9*10^M9)</f>
         <v>6620</v>
       </c>
     </row>
@@ -832,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D10*10^M10, 2*E10*10^M10, 2*F10*10^M10, 2*G10*10^M10, 2*H10*10^M10, 2*I10*10^M10, 2*J10*10^M10, 2*K10*10^M10)</f>
         <v>11200</v>
       </c>
     </row>
@@ -878,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D11*10^M11, 2*E11*10^M11, 2*F11*10^M11, 2*G11*10^M11, 2*H11*10^M11, 2*I11*10^M11, 2*J11*10^M11, 2*K11*10^M11)</f>
         <v>27000</v>
       </c>
     </row>
@@ -924,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D12*10^M12, 2*E12*10^M12, 2*F12*10^M12, 2*G12*10^M12, 2*H12*10^M12, 2*I12*10^M12, 2*J12*10^M12, 2*K12*10^M12)</f>
         <v>1240</v>
       </c>
     </row>
@@ -970,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D13*10^M13, 2*E13*10^M13, 2*F13*10^M13, 2*G13*10^M13, 2*H13*10^M13, 2*I13*10^M13, 2*J13*10^M13, 2*K13*10^M13)</f>
         <v>13000</v>
       </c>
     </row>
@@ -1016,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D14*10^M14, 2*E14*10^M14, 2*F14*10^M14, 2*G14*10^M14, 2*H14*10^M14, 2*I14*10^M14, 2*J14*10^M14, 2*K14*10^M14)</f>
         <v>1960</v>
       </c>
     </row>
@@ -1062,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D15*10^M15, 2*E15*10^M15, 2*F15*10^M15, 2*G15*10^M15, 2*H15*10^M15, 2*I15*10^M15, 2*J15*10^M15, 2*K15*10^M15)</f>
         <v>1760</v>
       </c>
     </row>
@@ -1108,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D16*10^M16, 2*E16*10^M16, 2*F16*10^M16, 2*G16*10^M16, 2*H16*10^M16, 2*I16*10^M16, 2*J16*10^M16, 2*K16*10^M16)</f>
         <v>2060</v>
       </c>
     </row>
@@ -1154,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D17*10^M17, 2*E17*10^M17, 2*F17*10^M17, 2*G17*10^M17, 2*H17*10^M17, 2*I17*10^M17, 2*J17*10^M17, 2*K17*10^M17)</f>
         <v>4840</v>
       </c>
     </row>
@@ -1200,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D18*10^M18, 2*E18*10^M18, 2*F18*10^M18, 2*G18*10^M18, 2*H18*10^M18, 2*I18*10^M18, 2*J18*10^M18, 2*K18*10^M18)</f>
         <v>2500</v>
       </c>
     </row>
@@ -1246,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D19*10^M19, 2*E19*10^M19, 2*F19*10^M19, 2*G19*10^M19, 2*H19*10^M19, 2*I19*10^M19, 2*J19*10^M19, 2*K19*10^M19)</f>
         <v>2620</v>
       </c>
     </row>
@@ -1292,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D20*10^M20, 2*E20*10^M20, 2*F20*10^M20, 2*G20*10^M20, 2*H20*10^M20, 2*I20*10^M20, 2*J20*10^M20, 2*K20*10^M20)</f>
         <v>14000</v>
       </c>
     </row>
@@ -1338,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D21*10^M21, 2*E21*10^M21, 2*F21*10^M21, 2*G21*10^M21, 2*H21*10^M21, 2*I21*10^M21, 2*J21*10^M21, 2*K21*10^M21)</f>
         <v>2140</v>
       </c>
     </row>
@@ -1384,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D22*10^M22, 2*E22*10^M22, 2*F22*10^M22, 2*G22*10^M22, 2*H22*10^M22, 2*I22*10^M22, 2*J22*10^M22, 2*K22*10^M22)</f>
         <v>19040</v>
       </c>
     </row>
@@ -1430,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D23*10^M23, 2*E23*10^M23, 2*F23*10^M23, 2*G23*10^M23, 2*H23*10^M23, 2*I23*10^M23, 2*J23*10^M23, 2*K23*10^M23)</f>
         <v>2380</v>
       </c>
     </row>
@@ -1476,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D24*10^M24, 2*E24*10^M24, 2*F24*10^M24, 2*G24*10^M24, 2*H24*10^M24, 2*I24*10^M24, 2*J24*10^M24, 2*K24*10^M24)</f>
         <v>5100</v>
       </c>
     </row>
@@ -1522,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D25*10^M25, 2*E25*10^M25, 2*F25*10^M25, 2*G25*10^M25, 2*H25*10^M25, 2*I25*10^M25, 2*J25*10^M25, 2*K25*10^M25)</f>
         <v>2360</v>
       </c>
     </row>
@@ -1568,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D26*10^M26, 2*E26*10^M26, 2*F26*10^M26, 2*G26*10^M26, 2*H26*10^M26, 2*I26*10^M26, 2*J26*10^M26, 2*K26*10^M26)</f>
         <v>960</v>
       </c>
     </row>
@@ -1614,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D27*10^M27, 2*E27*10^M27, 2*F27*10^M27, 2*G27*10^M27, 2*H27*10^M27, 2*I27*10^M27, 2*J27*10^M27, 2*K27*10^M27)</f>
         <v>8960</v>
       </c>
     </row>
@@ -1660,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D28*10^M28, 2*E28*10^M28, 2*F28*10^M28, 2*G28*10^M28, 2*H28*10^M28, 2*I28*10^M28, 2*J28*10^M28, 2*K28*10^M28)</f>
         <v>8100</v>
       </c>
     </row>
@@ -1706,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D29*10^M29, 2*E29*10^M29, 2*F29*10^M29, 2*G29*10^M29, 2*H29*10^M29, 2*I29*10^M29, 2*J29*10^M29, 2*K29*10^M29)</f>
         <v>4440</v>
       </c>
     </row>
@@ -1752,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D30*10^M30, 2*E30*10^M30, 2*F30*10^M30, 2*G30*10^M30, 2*H30*10^M30, 2*I30*10^M30, 2*J30*10^M30, 2*K30*10^M30)</f>
         <v>4800</v>
       </c>
     </row>
@@ -1798,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D31*10^M31, 2*E31*10^M31, 2*F31*10^M31, 2*G31*10^M31, 2*H31*10^M31, 2*I31*10^M31, 2*J31*10^M31, 2*K31*10^M31)</f>
         <v>1780</v>
       </c>
     </row>
@@ -1844,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D32*10^M32, 2*E32*10^M32, 2*F32*10^M32, 2*G32*10^M32, 2*H32*10^M32, 2*I32*10^M32, 2*J32*10^M32, 2*K32*10^M32)</f>
         <v>51200</v>
       </c>
     </row>
@@ -1890,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D33*10^M33, 2*E33*10^M33, 2*F33*10^M33, 2*G33*10^M33, 2*H33*10^M33, 2*I33*10^M33, 2*J33*10^M33, 2*K33*10^M33)</f>
         <v>2120</v>
       </c>
     </row>
@@ -1936,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D34*10^M34, 2*E34*10^M34, 2*F34*10^M34, 2*G34*10^M34, 2*H34*10^M34, 2*I34*10^M34, 2*J34*10^M34, 2*K34*10^M34)</f>
         <v>1140</v>
       </c>
     </row>
@@ -1982,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D35*10^M35, 2*E35*10^M35, 2*F35*10^M35, 2*G35*10^M35, 2*H35*10^M35, 2*I35*10^M35, 2*J35*10^M35, 2*K35*10^M35)</f>
         <v>25860</v>
       </c>
     </row>
@@ -2028,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D36*10^M36, 2*E36*10^M36, 2*F36*10^M36, 2*G36*10^M36, 2*H36*10^M36, 2*I36*10^M36, 2*J36*10^M36, 2*K36*10^M36)</f>
         <v>10400</v>
       </c>
     </row>
@@ -2074,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D37*10^M37, 2*E37*10^M37, 2*F37*10^M37, 2*G37*10^M37, 2*H37*10^M37, 2*I37*10^M37, 2*J37*10^M37, 2*K37*10^M37)</f>
         <v>2060</v>
       </c>
     </row>
@@ -2120,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D38*10^M38, 2*E38*10^M38, 2*F38*10^M38, 2*G38*10^M38, 2*H38*10^M38, 2*I38*10^M38, 2*J38*10^M38, 2*K38*10^M38)</f>
         <v>2200</v>
       </c>
     </row>
@@ -2166,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D39*10^M39, 2*E39*10^M39, 2*F39*10^M39, 2*G39*10^M39, 2*H39*10^M39, 2*I39*10^M39, 2*J39*10^M39, 2*K39*10^M39)</f>
         <v>2860</v>
       </c>
     </row>
@@ -2212,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D40*10^M40, 2*E40*10^M40, 2*F40*10^M40, 2*G40*10^M40, 2*H40*10^M40, 2*I40*10^M40, 2*J40*10^M40, 2*K40*10^M40)</f>
         <v>800</v>
       </c>
     </row>
@@ -2258,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D41*10^M41, 2*E41*10^M41, 2*F41*10^M41, 2*G41*10^M41, 2*H41*10^M41, 2*I41*10^M41, 2*J41*10^M41, 2*K41*10^M41)</f>
         <v>500</v>
       </c>
     </row>
@@ -2304,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D42*10^M42, 2*E42*10^M42, 2*F42*10^M42, 2*G42*10^M42, 2*H42*10^M42, 2*I42*10^M42, 2*J42*10^M42, 2*K42*10^M42)</f>
         <v>720</v>
       </c>
     </row>
@@ -2350,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D43*10^M43, 2*E43*10^M43, 2*F43*10^M43, 2*G43*10^M43, 2*H43*10^M43, 2*I43*10^M43, 2*J43*10^M43, 2*K43*10^M43)</f>
         <v>3540</v>
       </c>
     </row>
@@ -2396,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D44*10^M44, 2*E44*10^M44, 2*F44*10^M44, 2*G44*10^M44, 2*H44*10^M44, 2*I44*10^M44, 2*J44*10^M44, 2*K44*10^M44)</f>
         <v>5020</v>
       </c>
     </row>
@@ -2442,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D45*10^M45, 2*E45*10^M45, 2*F45*10^M45, 2*G45*10^M45, 2*H45*10^M45, 2*I45*10^M45, 2*J45*10^M45, 2*K45*10^M45)</f>
         <v>1220</v>
       </c>
     </row>
@@ -2488,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D46*10^M46, 2*E46*10^M46, 2*F46*10^M46, 2*G46*10^M46, 2*H46*10^M46, 2*I46*10^M46, 2*J46*10^M46, 2*K46*10^M46)</f>
         <v>1460</v>
       </c>
     </row>
@@ -2534,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D47*10^M47, 2*E47*10^M47, 2*F47*10^M47, 2*G47*10^M47, 2*H47*10^M47, 2*I47*10^M47, 2*J47*10^M47, 2*K47*10^M47)</f>
         <v>80060</v>
       </c>
     </row>
@@ -2580,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D48*10^M48, 2*E48*10^M48, 2*F48*10^M48, 2*G48*10^M48, 2*H48*10^M48, 2*I48*10^M48, 2*J48*10^M48, 2*K48*10^M48)</f>
         <v>1540</v>
       </c>
     </row>
@@ -2626,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D49*10^M49, 2*E49*10^M49, 2*F49*10^M49, 2*G49*10^M49, 2*H49*10^M49, 2*I49*10^M49, 2*J49*10^M49, 2*K49*10^M49)</f>
         <v>6660</v>
       </c>
     </row>
@@ -2672,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D50*10^M50, 2*E50*10^M50, 2*F50*10^M50, 2*G50*10^M50, 2*H50*10^M50, 2*I50*10^M50, 2*J50*10^M50, 2*K50*10^M50)</f>
         <v>2280</v>
       </c>
     </row>
@@ -2718,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D51*10^M51, 2*E51*10^M51, 2*F51*10^M51, 2*G51*10^M51, 2*H51*10^M51, 2*I51*10^M51, 2*J51*10^M51, 2*K51*10^M51)</f>
         <v>520</v>
       </c>
     </row>
@@ -2764,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D52*10^M52, 2*E52*10^M52, 2*F52*10^M52, 2*G52*10^M52, 2*H52*10^M52, 2*I52*10^M52, 2*J52*10^M52, 2*K52*10^M52)</f>
         <v>6340</v>
       </c>
     </row>
@@ -2810,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D53*10^M53, 2*E53*10^M53, 2*F53*10^M53, 2*G53*10^M53, 2*H53*10^M53, 2*I53*10^M53, 2*J53*10^M53, 2*K53*10^M53)</f>
         <v>1500</v>
       </c>
     </row>
@@ -2856,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D54*10^M54, 2*E54*10^M54, 2*F54*10^M54, 2*G54*10^M54, 2*H54*10^M54, 2*I54*10^M54, 2*J54*10^M54, 2*K54*10^M54)</f>
         <v>3800</v>
       </c>
     </row>
@@ -2902,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D55*10^M55, 2*E55*10^M55, 2*F55*10^M55, 2*G55*10^M55, 2*H55*10^M55, 2*I55*10^M55, 2*J55*10^M55, 2*K55*10^M55)</f>
         <v>6260</v>
       </c>
     </row>
@@ -2948,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D56*10^M56, 2*E56*10^M56, 2*F56*10^M56, 2*G56*10^M56, 2*H56*10^M56, 2*I56*10^M56, 2*J56*10^M56, 2*K56*10^M56)</f>
         <v>780</v>
       </c>
     </row>
@@ -2994,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D57*10^M57, 2*E57*10^M57, 2*F57*10^M57, 2*G57*10^M57, 2*H57*10^M57, 2*I57*10^M57, 2*J57*10^M57, 2*K57*10^M57)</f>
         <v>28000</v>
       </c>
     </row>
@@ -3040,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D58*10^M58, 2*E58*10^M58, 2*F58*10^M58, 2*G58*10^M58, 2*H58*10^M58, 2*I58*10^M58, 2*J58*10^M58, 2*K58*10^M58)</f>
         <v>22320</v>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D59*10^M59, 2*E59*10^M59, 2*F59*10^M59, 2*G59*10^M59, 2*H59*10^M59, 2*I59*10^M59, 2*J59*10^M59, 2*K59*10^M59)</f>
         <v>50400</v>
       </c>
     </row>
@@ -3132,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D60*10^M60, 2*E60*10^M60, 2*F60*10^M60, 2*G60*10^M60, 2*H60*10^M60, 2*I60*10^M60, 2*J60*10^M60, 2*K60*10^M60)</f>
         <v>19220</v>
       </c>
     </row>
@@ -3178,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D61*10^M61, 2*E61*10^M61, 2*F61*10^M61, 2*G61*10^M61, 2*H61*10^M61, 2*I61*10^M61, 2*J61*10^M61, 2*K61*10^M61)</f>
         <v>37280</v>
       </c>
     </row>
@@ -3224,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D62*10^M62, 2*E62*10^M62, 2*F62*10^M62, 2*G62*10^M62, 2*H62*10^M62, 2*I62*10^M62, 2*J62*10^M62, 2*K62*10^M62)</f>
         <v>32280</v>
       </c>
     </row>
@@ -3270,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D63*10^M63, 2*E63*10^M63, 2*F63*10^M63, 2*G63*10^M63, 2*H63*10^M63, 2*I63*10^M63, 2*J63*10^M63, 2*K63*10^M63)</f>
         <v>15020</v>
       </c>
     </row>
@@ -3316,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D64*10^M64, 2*E64*10^M64, 2*F64*10^M64, 2*G64*10^M64, 2*H64*10^M64, 2*I64*10^M64, 2*J64*10^M64, 2*K64*10^M64)</f>
         <v>29000</v>
       </c>
     </row>
@@ -3362,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f>SUM(2*D65*10^M65, 2*E65*10^M65, 2*F65*10^M65, 2*G65*10^M65, 2*H65*10^M65, 2*I65*10^M65, 2*J65*10^M65, 2*K65*10^M65)</f>
         <v>53800</v>
       </c>
     </row>
@@ -3401,14 +3413,14 @@
         <v>0.1</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L80" si="2">ROUND(SUM(D66:K66),0)</f>
+        <f t="shared" ref="L66:L80" si="1">ROUND(SUM(D66:K66),0)</f>
         <v>84</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N80" si="3">SUM(2*D66*10^M66, 2*E66*10^M66, 2*F66*10^M66, 2*G66*10^M66, 2*H66*10^M66, 2*I66*10^M66, 2*J66*10^M66, 2*K66*10^M66)</f>
+        <f>SUM(2*D66*10^M66, 2*E66*10^M66, 2*F66*10^M66, 2*G66*10^M66, 2*H66*10^M66, 2*I66*10^M66, 2*J66*10^M66, 2*K66*10^M66)</f>
         <v>16720</v>
       </c>
     </row>
@@ -3447,14 +3459,14 @@
         <v>7</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>273</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D67*10^M67, 2*E67*10^M67, 2*F67*10^M67, 2*G67*10^M67, 2*H67*10^M67, 2*I67*10^M67, 2*J67*10^M67, 2*K67*10^M67)</f>
         <v>5460</v>
       </c>
     </row>
@@ -3493,14 +3505,14 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="M68">
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D68*10^M68, 2*E68*10^M68, 2*F68*10^M68, 2*G68*10^M68, 2*H68*10^M68, 2*I68*10^M68, 2*J68*10^M68, 2*K68*10^M68)</f>
         <v>19020</v>
       </c>
     </row>
@@ -3539,14 +3551,14 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D69*10^M69, 2*E69*10^M69, 2*F69*10^M69, 2*G69*10^M69, 2*H69*10^M69, 2*I69*10^M69, 2*J69*10^M69, 2*K69*10^M69)</f>
         <v>2340</v>
       </c>
     </row>
@@ -3585,14 +3597,14 @@
         <v>4</v>
       </c>
       <c r="L70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D70*10^M70, 2*E70*10^M70, 2*F70*10^M70, 2*G70*10^M70, 2*H70*10^M70, 2*I70*10^M70, 2*J70*10^M70, 2*K70*10^M70)</f>
         <v>26400</v>
       </c>
     </row>
@@ -3631,14 +3643,14 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="M71">
         <v>2</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D71*10^M71, 2*E71*10^M71, 2*F71*10^M71, 2*G71*10^M71, 2*H71*10^M71, 2*I71*10^M71, 2*J71*10^M71, 2*K71*10^M71)</f>
         <v>49000</v>
       </c>
     </row>
@@ -3677,14 +3689,14 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="M72">
         <v>2</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D72*10^M72, 2*E72*10^M72, 2*F72*10^M72, 2*G72*10^M72, 2*H72*10^M72, 2*I72*10^M72, 2*J72*10^M72, 2*K72*10^M72)</f>
         <v>32200</v>
       </c>
     </row>
@@ -3723,14 +3735,14 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="M73">
         <v>2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D73*10^M73, 2*E73*10^M73, 2*F73*10^M73, 2*G73*10^M73, 2*H73*10^M73, 2*I73*10^M73, 2*J73*10^M73, 2*K73*10^M73)</f>
         <v>47600</v>
       </c>
     </row>
@@ -3769,14 +3781,14 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D74*10^M74, 2*E74*10^M74, 2*F74*10^M74, 2*G74*10^M74, 2*H74*10^M74, 2*I74*10^M74, 2*J74*10^M74, 2*K74*10^M74)</f>
         <v>38200</v>
       </c>
     </row>
@@ -3815,14 +3827,14 @@
         <v>6</v>
       </c>
       <c r="L75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D75*10^M75, 2*E75*10^M75, 2*F75*10^M75, 2*G75*10^M75, 2*H75*10^M75, 2*I75*10^M75, 2*J75*10^M75, 2*K75*10^M75)</f>
         <v>29000</v>
       </c>
     </row>
@@ -3861,14 +3873,14 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="M76">
         <v>2</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D76*10^M76, 2*E76*10^M76, 2*F76*10^M76, 2*G76*10^M76, 2*H76*10^M76, 2*I76*10^M76, 2*J76*10^M76, 2*K76*10^M76)</f>
         <v>57000</v>
       </c>
     </row>
@@ -3907,14 +3919,14 @@
         <v>6</v>
       </c>
       <c r="L77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="M77">
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D77*10^M77, 2*E77*10^M77, 2*F77*10^M77, 2*G77*10^M77, 2*H77*10^M77, 2*I77*10^M77, 2*J77*10^M77, 2*K77*10^M77)</f>
         <v>63000</v>
       </c>
     </row>
@@ -3953,14 +3965,14 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="M78">
         <v>2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D78*10^M78, 2*E78*10^M78, 2*F78*10^M78, 2*G78*10^M78, 2*H78*10^M78, 2*I78*10^M78, 2*J78*10^M78, 2*K78*10^M78)</f>
         <v>46600</v>
       </c>
     </row>
@@ -3999,14 +4011,14 @@
         <v>20</v>
       </c>
       <c r="L79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>284</v>
       </c>
       <c r="M79">
         <v>2</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D79*10^M79, 2*E79*10^M79, 2*F79*10^M79, 2*G79*10^M79, 2*H79*10^M79, 2*I79*10^M79, 2*J79*10^M79, 2*K79*10^M79)</f>
         <v>56800</v>
       </c>
     </row>
@@ -4045,14 +4057,14 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="M80">
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f>SUM(2*D80*10^M80, 2*E80*10^M80, 2*F80*10^M80, 2*G80*10^M80, 2*H80*10^M80, 2*I80*10^M80, 2*J80*10^M80, 2*K80*10^M80)</f>
         <v>41000</v>
       </c>
     </row>
